--- a/nanni_chip_rna_2022/documentation/chip_rna_figures_05avn.xlsx
+++ b/nanni_chip_rna_2022/documentation/chip_rna_figures_05avn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ufgi$/SHARE/McIntyre_Lab/Dros_CHIP_RNA_ms/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753C15E-721B-734E-AB68-ECE7A18726B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD521460-F66C-294E-B441-D75F7E9C1299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20040" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,14 +348,6 @@
     <t>Make Chip-Expression bar charts</t>
   </si>
   <si>
-    <t>Plot bar plots of expression and chromatin relationship for male biased expression (male open, female closed) and female-biased expression (female open, male closed)
-Subset for genes that are in one-to-one orthologs within each species</t>
-  </si>
-  <si>
-    <t>export PATH=$HOME/conda/.envs/mylab/bin:$PATH
-$PROJ/scripts/integrated_chip_rna/exp_chrom_barplot_XA_02avn.py</t>
-  </si>
-  <si>
     <t>$PROJ/scripts/integrated_chip_rna/run_exp_chrom_barplot_XA_02avn.sh</t>
   </si>
   <si>
@@ -363,13 +355,6 @@
 dmel_chip_rna_flags.csv
 dsim_chip_rna_flags.csv
 dmel_dsim_ortholog_chip_rna_flags.csv</t>
-  </si>
-  <si>
-    <t>$PROJ/manuscript/figures/exp_chrom_barplots/${SPECIES}_{XSOME}_{BIAS}_${MARK}.png
-SPECIES = mel, sim
-XSOME = X, A
-BIAS = Male-biased, Female-biased
-MARK = open, closed</t>
   </si>
   <si>
     <t>$PROJ/RNAseq/model_output/mel_frag_flags_kitchen_sink.csv
@@ -509,6 +494,24 @@
   </si>
   <si>
     <t>$PROJ/scripts/intergrated_chip_rna/run_plot_tajimaD_H12_sim.sh</t>
+  </si>
+  <si>
+    <t>export PATH=$HOME/conda/.envs/mylab/bin:$PATH
+$PROJ/scripts/integrated_chip_rna/exp_chrom_barplot_XA_03avn.py</t>
+  </si>
+  <si>
+    <t>Plot bar plots of expression and chromatin relationship for male biased expression (male open, female closed) and female-biased expression (female open, male closed)
+Subset for genes that are in one-to-one orthologs within each species
+Subset for genes that are one-to-one orthologs and conserved in sex bias between the species
+Subset for genes that are one-to-one orthologs and gain/loss in sex bias between the species</t>
+  </si>
+  <si>
+    <t>$PROJ/manuscript/figures/exp_chrom_barplots/${GROUP}_${SPECIES}_{XSOME}_{BIAS}_${MARK}.png
+GROUP = all, orthologous, conserved, gainLoss
+SPECIES = mel, sim
+XSOME = X, A
+BIAS = Male-biased, Female-biased
+MARK = open, closed</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,13 +616,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -627,10 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +709,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1005,7 +997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1174,73 +1166,66 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="256" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="288" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -1277,10 +1262,10 @@
         <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>37</v>
@@ -1289,107 +1274,83 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
@@ -1417,7 +1378,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1428,165 +1389,154 @@
         <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="8" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="B36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="38" spans="1:9" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="40" spans="1:9" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="42" spans="1:9" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="44" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1596,22 +1546,22 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
